--- a/metrics/SageNet/model_confusion_matrix_sagenet_sentences.xlsx
+++ b/metrics/SageNet/model_confusion_matrix_sagenet_sentences.xlsx
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
